--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -110,7 +110,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,9 +129,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,10 +681,10 @@
       <c r="G3" s="1"/>
       <c r="H3" s="5">
         <f>(1/I2)*I3</f>
-        <v>2.3833333333333334e-005</v>
+        <v>7.983333333333334e-005</v>
       </c>
       <c r="I3" s="6">
-        <v>71.5</v>
+        <v>239.5</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>2</v>
@@ -718,7 +715,7 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H5" t="s">
@@ -735,14 +732,14 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>4</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="H6">
         <f>1/H3</f>
-        <v>41958.041958041955</v>
+        <v>12526.096033402922</v>
       </c>
       <c r="M6">
         <v>7.5</v>
@@ -753,20 +750,20 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <f>1/B7</f>
+        <f t="shared" ref="C7:C9" si="0">1/B7</f>
         <v>0.20000000000000001</v>
       </c>
       <c r="D7" s="1">
-        <f>C7*$D$6</f>
+        <f t="shared" ref="D7:D9" si="1">C7*$D$6</f>
         <v>0.80000000000000004</v>
       </c>
-      <c r="E7" s="10">
-        <f>ROUNDDOWN(C7/$H$3,0)</f>
-        <v>8391</v>
-      </c>
-      <c r="F7" s="11">
-        <f>E7*$D$6</f>
-        <v>33564</v>
+      <c r="E7" s="9">
+        <f t="shared" ref="E7:E9" si="2">ROUNDDOWN(C7/$H$3,0)</f>
+        <v>2505</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F9" si="3">E7*$D$6</f>
+        <v>10020</v>
       </c>
       <c r="M7">
         <v>13.5</v>
@@ -777,20 +774,20 @@
         <v>10</v>
       </c>
       <c r="C8" s="1">
-        <f>1/B8</f>
+        <f t="shared" si="0"/>
         <v>0.10000000000000001</v>
       </c>
       <c r="D8" s="1">
-        <f>C8*$D$6</f>
+        <f t="shared" si="1"/>
         <v>0.40000000000000002</v>
       </c>
-      <c r="E8" s="10">
-        <f>ROUNDDOWN(C8/$H$3,0)</f>
-        <v>4195</v>
-      </c>
-      <c r="F8" s="11">
-        <f>E8*$D$6</f>
-        <v>16780</v>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
+        <v>1252</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="3"/>
+        <v>5008</v>
       </c>
       <c r="M8">
         <v>28.5</v>
@@ -801,20 +798,20 @@
         <v>50</v>
       </c>
       <c r="C9" s="1">
-        <f>1/B9</f>
+        <f t="shared" si="0"/>
         <v>2.e-002</v>
       </c>
       <c r="D9" s="1">
-        <f>C9*$D$6</f>
+        <f t="shared" si="1"/>
         <v>8.0000000000000002e-002</v>
       </c>
-      <c r="E9" s="10">
-        <f>ROUNDDOWN(C9/$H$3,0)</f>
-        <v>839</v>
-      </c>
-      <c r="F9" s="11">
-        <f>E9*$D$6</f>
-        <v>3356</v>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="M9">
         <v>41.5</v>
@@ -825,20 +822,20 @@
         <v>100</v>
       </c>
       <c r="C10" s="1">
-        <f>1/B10</f>
+        <f t="shared" ref="C10:C12" si="4">1/B10</f>
         <v>1.e-002</v>
       </c>
       <c r="D10" s="1">
-        <f>C10*$D$6</f>
+        <f t="shared" ref="D10:D12" si="5">C10*$D$6</f>
         <v>4.0000000000000001e-002</v>
       </c>
-      <c r="E10" s="10">
-        <f>ROUNDDOWN(C10/$H$3,0)</f>
-        <v>419</v>
-      </c>
-      <c r="F10" s="11">
-        <f>E10*$D$6</f>
-        <v>1676</v>
+      <c r="E10" s="9">
+        <f t="shared" ref="E10:E12" si="6">ROUNDDOWN(C10/$H$3,0)</f>
+        <v>125</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ref="F10:F12" si="7">E10*$D$6</f>
+        <v>500</v>
       </c>
       <c r="M10">
         <v>55.5</v>
@@ -849,20 +846,20 @@
         <v>200</v>
       </c>
       <c r="C11" s="1">
-        <f>1/B11</f>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001e-003</v>
       </c>
       <c r="D11" s="1">
-        <f>C11*$D$6</f>
+        <f t="shared" si="5"/>
         <v>2.e-002</v>
       </c>
-      <c r="E11" s="10">
-        <f>ROUNDDOWN(C11/$H$3,0)</f>
-        <v>209</v>
-      </c>
-      <c r="F11" s="11">
-        <f>E11*$D$6</f>
-        <v>836</v>
+      <c r="E11" s="9">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="7"/>
+        <v>248</v>
       </c>
       <c r="M11">
         <v>71.5</v>
@@ -873,20 +870,20 @@
         <v>500</v>
       </c>
       <c r="C12" s="1">
-        <f>1/B12</f>
+        <f t="shared" si="4"/>
         <v>2.e-003</v>
       </c>
       <c r="D12" s="1">
-        <f>C12*$D$6</f>
+        <f t="shared" si="5"/>
         <v>8.0000000000000002e-003</v>
       </c>
-      <c r="E12" s="10">
-        <f>ROUNDDOWN(C12/$H$3,0)</f>
-        <v>83</v>
-      </c>
-      <c r="F12" s="11">
-        <f>E12*$D$6</f>
-        <v>332</v>
+      <c r="E12" s="9">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="M12">
         <v>239.5</v>
@@ -897,7 +894,7 @@
         <v>72000000</v>
       </c>
       <c r="I16">
-        <f>1/H16</f>
+        <f t="shared" ref="I16:I17" si="8">1/H16</f>
         <v>1.3888888888888889e-008</v>
       </c>
     </row>
@@ -907,7 +904,7 @@
         <v>20000</v>
       </c>
       <c r="I17">
-        <f>1/H17</f>
+        <f t="shared" si="8"/>
         <v>5.0000000000000002e-005</v>
       </c>
     </row>

--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\workspace\lampolumo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FE7B78-F1E1-48AB-A9E7-CB535E8D2897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5404CD7-F98E-42C0-9E44-1271282037FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1020" windowWidth="17955" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1020" windowWidth="13635" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>Sample time, s</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Clock, Hz</t>
   </si>
@@ -65,17 +62,22 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Sample time, us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00000000000000_-;\-* #,##0.00000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0&quot; &quot;_₽_-;&quot;-&quot;* #,##0&quot; &quot;_₽_-;_-* &quot;-&quot;???????????\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;?????\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -136,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -148,7 +150,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -164,9 +166,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N18"/>
+  <dimension ref="B2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,81 +413,65 @@
     <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3000000</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H3" s="5">
-        <f>(1/I2)*I3</f>
-        <v>7.983333333333334E-5</v>
-      </c>
-      <c r="I3" s="6">
-        <v>239.5</v>
-      </c>
-      <c r="J3" s="7" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>72000000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="D6" s="8">
         <v>4</v>
       </c>
       <c r="H6">
-        <v>5000</v>
-      </c>
-      <c r="M6">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+        <f>H2/H3/H4</f>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -496,21 +484,18 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="9">
-        <f>ROUNDDOWN(C7/$H$8,0)</f>
-        <v>1000</v>
+        <f t="shared" ref="E7:E13" si="2">ROUNDDOWN(C7/$H$8,0)</f>
+        <v>2500</v>
       </c>
       <c r="F7" s="10">
         <f>E7*$D$6</f>
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -523,22 +508,19 @@
         <v>0.4</v>
       </c>
       <c r="E8" s="9">
-        <f>ROUNDDOWN(C8/$H$8,0)</f>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>1250</v>
       </c>
       <c r="F8" s="10">
-        <f t="shared" ref="F7:F9" si="2">E8*$D$6</f>
-        <v>2000</v>
+        <f t="shared" ref="F8:F9" si="3">E8*$D$6</f>
+        <v>5000</v>
       </c>
       <c r="H8">
         <f>1/H6</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M8">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>50</v>
       </c>
@@ -551,66 +533,57 @@
         <v>0.08</v>
       </c>
       <c r="E9" s="9">
-        <f>ROUNDDOWN(C9/$H$8,0)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>250</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="M9">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>100</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" ref="C10:C12" si="3">1/B10</f>
+        <f t="shared" ref="C10:C11" si="4">1/B10</f>
         <v>0.01</v>
       </c>
       <c r="D10" s="11">
-        <f t="shared" ref="D10:D12" si="4">C10*$D$6</f>
+        <f t="shared" ref="D10:D11" si="5">C10*$D$6</f>
         <v>0.04</v>
       </c>
       <c r="E10" s="9">
-        <f>ROUNDDOWN(C10/$H$8,0)</f>
-        <v>50</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" ref="F10:F12" si="5">E10*$D$6</f>
-        <v>200</v>
-      </c>
-      <c r="M10">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F10:F11" si="6">E10*$D$6</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>200</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="E11" s="9">
-        <f>ROUNDDOWN(C11/$H$8,0)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
       <c r="F11" s="10">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="M11">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>300</v>
       </c>
@@ -623,18 +596,15 @@
         <v>1.3333333333333334E-2</v>
       </c>
       <c r="E12" s="9">
-        <f>ROUNDDOWN(C12/$H$8,0)</f>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>41</v>
       </c>
       <c r="F12" s="10">
         <f>E12*$D$6</f>
-        <v>64</v>
-      </c>
-      <c r="M12">
-        <v>239.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>500</v>
       </c>
@@ -647,37 +617,141 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E13" s="9">
-        <f>ROUNDDOWN(C13/$H$8,0)</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="F13" s="10">
         <f>E13*$D$6</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>72000000</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I17" si="6">1/H16</f>
-        <v>1.3888888888888889E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H17">
-        <f>H16/3600</f>
-        <v>20000</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f>H17/100</f>
-        <v>200</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="2"/>
+      <c r="J16" s="3">
+        <v>9000000</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20:J27" si="7">(1/$J$16)*I20*1000000</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K20" s="13">
+        <f>1/(J20/1000000)</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>7.5</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" ref="K21:K27" si="8">1/(J21/1000000)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>13.5</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="8"/>
+        <v>666666.66666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>28.5</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="7"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="8"/>
+        <v>315789.4736842105</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>41.5</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="7"/>
+        <v>4.6111111111111116</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="8"/>
+        <v>216867.46987951806</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>55.5</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="7"/>
+        <v>6.1666666666666661</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="8"/>
+        <v>162162.16216216216</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>71.5</v>
+      </c>
+      <c r="J26" s="12">
+        <f t="shared" si="7"/>
+        <v>7.9444444444444438</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="8"/>
+        <v>125874.12587412589</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>239.5</v>
+      </c>
+      <c r="J27" s="12">
+        <f t="shared" si="7"/>
+        <v>26.611111111111107</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="8"/>
+        <v>37578.288100208774</v>
       </c>
     </row>
   </sheetData>

--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\workspace\lampolumo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5404CD7-F98E-42C0-9E44-1271282037FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA3D65-4E4E-4F1B-834E-1AF5B53D1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1020" windowWidth="13635" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1020" windowWidth="17445" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Clock, Hz</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Sample time, us</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,22 +427,22 @@
     <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H2">
         <v>72000000</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H3">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -456,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -464,14 +470,14 @@
         <v>9</v>
       </c>
       <c r="D6" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f>H2/H3/H4</f>
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -481,21 +487,21 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" ref="D7:D9" si="1">C7*$D$6</f>
-        <v>0.8</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E13" si="2">ROUNDDOWN(C7/$H$8,0)</f>
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="10">
         <f>E7*$D$6</f>
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -505,22 +511,32 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="10">
         <f t="shared" ref="F8:F9" si="3">E8*$D$6</f>
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="H8">
         <f>1/H6</f>
-        <v>8.0000000000000007E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <f>1000000*H8</f>
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>50</v>
       </c>
@@ -530,18 +546,18 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="F9" s="10">
         <f t="shared" si="3"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>100</v>
       </c>
@@ -551,18 +567,18 @@
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D11" si="5">C10*$D$6</f>
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F10" s="10">
         <f t="shared" ref="F10:F11" si="6">E10*$D$6</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>200</v>
       </c>
@@ -572,18 +588,18 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="5"/>
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="6"/>
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>300</v>
       </c>
@@ -593,18 +609,18 @@
       </c>
       <c r="D12" s="11">
         <f>C12*$D$6</f>
-        <v>1.3333333333333334E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F12" s="10">
         <f>E12*$D$6</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>500</v>
       </c>
@@ -614,18 +630,18 @@
       </c>
       <c r="D13" s="11">
         <f>C13*$D$6</f>
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="10">
         <f>E13*$D$6</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
       <c r="J16" s="3">
         <v>9000000</v>
@@ -633,13 +649,22 @@
       <c r="K16" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f>128*25</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>1</v>
       </c>
@@ -650,7 +675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I20">
         <v>1.5</v>
       </c>
@@ -663,7 +688,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>7.5</v>
       </c>
@@ -676,7 +701,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>13.5</v>
       </c>
@@ -689,7 +714,7 @@
         <v>666666.66666666663</v>
       </c>
     </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>28.5</v>
       </c>
@@ -702,7 +727,7 @@
         <v>315789.4736842105</v>
       </c>
     </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>41.5</v>
       </c>
@@ -715,7 +740,7 @@
         <v>216867.46987951806</v>
       </c>
     </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>55.5</v>
       </c>
@@ -728,7 +753,7 @@
         <v>162162.16216216216</v>
       </c>
     </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>71.5</v>
       </c>
@@ -740,8 +765,11 @@
         <f t="shared" si="8"/>
         <v>125874.12587412589</v>
       </c>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>239.5</v>
       </c>

--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -1,101 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\workspace\lampolumo\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FA3D65-4E4E-4F1B-834E-1AF5B53D1711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1020" windowWidth="17445" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>Clock, Hz</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t xml:space="preserve">144-50 -&gt; 10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225-100 -&gt; 3200</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periods N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples in period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples N periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample freq, Hz</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock, Hz</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Cycles</t>
   </si>
   <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Freq</t>
-  </si>
-  <si>
-    <t>Periods N</t>
-  </si>
-  <si>
-    <t>Samples in period</t>
-  </si>
-  <si>
-    <t>Samples N periods</t>
-  </si>
-  <si>
-    <t>Sample freq, Hz</t>
-  </si>
-  <si>
-    <t>Hz</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Sample time, us</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>us</t>
+    <t xml:space="preserve">Sample time, us</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00000000000000_-;\-* #,##0.00000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0&quot; &quot;_₽_-;&quot;-&quot;* #,##0&quot; &quot;_₽_-;_-* &quot;-&quot;???????????\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;?????\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="160" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="161" formatCode="0.0000"/>
+    <numFmt numFmtId="162" formatCode="_-* #,##0&quot; &quot;_₽_-;&quot;-&quot;* #,##0&quot; &quot;_₽_-;_-* &quot;-&quot;???????????\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="163" formatCode="_-* #,##0.00000000000000_-;\-* #,##0.00000000000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;?????\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -105,6 +86,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,12 +111,6 @@
         <bgColor theme="4" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF00B0F0"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,42 +122,42 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="163" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -188,15 +169,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -399,55 +660,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="4.5703125" style="1" bestFit="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col bestFit="1" min="2" max="2" style="1" width="4.5703125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="12.28515625"/>
+    <col customWidth="1" min="4" max="4" style="1" width="11"/>
+    <col customWidth="1" min="5" max="6" style="1" width="18.85546875"/>
+    <col min="7" max="7" style="1" width="9.140625"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" width="6.7109375"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" width="16.140625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="18"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="17.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="H2">
         <v>72000000</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="H3">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -462,220 +727,220 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
       <c r="H6">
         <f>H2/H3/H4</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C9" si="0">1/B7</f>
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="11">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" ref="D7:D9" si="1">C7*$D$6</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="4">
         <f t="shared" ref="E7:E13" si="2">ROUNDDOWN(C7/$H$8,0)</f>
-        <v>2000</v>
-      </c>
-      <c r="F7" s="10">
-        <f>E7*$D$6</f>
-        <v>6000</v>
+        <v>640</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F9" si="3">E7*$D$6</f>
+        <v>1920</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="11">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ref="F8:F9" si="3">E8*$D$6</f>
-        <v>3000</v>
+        <v>320</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="3"/>
+        <v>960</v>
       </c>
       <c r="H8">
         <f>1/H6</f>
-        <v>1E-4</v>
+        <v>3.1250000000000001e-004</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
       <c r="J8">
         <f>1000000*H8</f>
-        <v>100</v>
+        <v>312.5</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="1">
         <v>50</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="11">
+        <v>2.e-002</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="9">
+        <v>5.9999999999999998e-002</v>
+      </c>
+      <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="F9" s="10">
+        <v>64</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="1">
         <v>100</v>
       </c>
-      <c r="C10" s="11">
-        <f t="shared" ref="C10:C11" si="4">1/B10</f>
-        <v>0.01</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" ref="D10:D11" si="5">C10*$D$6</f>
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="3">
+        <f t="shared" ref="C10:C13" si="4">1/B10</f>
+        <v>1.e-002</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:D13" si="5">C10*$D$6</f>
+        <v>2.9999999999999999e-002</v>
+      </c>
+      <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ref="F10:F11" si="6">E10*$D$6</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10:F13" si="6">E10*$D$6</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="1">
         <v>200</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="3">
         <f t="shared" si="4"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D11" s="11">
+        <v>5.0000000000000001e-003</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="5"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E11" s="9">
+        <v>1.4999999999999999e-002</v>
+      </c>
+      <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="F11" s="10">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" s="1">
         <v>300</v>
       </c>
-      <c r="C12" s="11">
-        <f>1/B12</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="D12" s="11">
-        <f>C12*$D$6</f>
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333335e-003</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="5"/>
+        <v>1.e-002</v>
+      </c>
+      <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="F12" s="10">
-        <f>E12*$D$6</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="11">
-        <f>1/B13</f>
-        <v>2E-3</v>
-      </c>
-      <c r="D13" s="11">
-        <f>C13*$D$6</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="3">
+        <f t="shared" si="4"/>
+        <v>2.e-003</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>6.0000000000000001e-003</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F13" s="10">
-        <f>E13*$D$6</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="I16" s="2"/>
-      <c r="J16" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
         <v>9000000</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>0</v>
+      <c r="K16" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18">
       <c r="D18" s="1">
         <f>128*25</f>
         <v>3200</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="I19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="I20">
         <v>1.5</v>
       </c>
@@ -684,11 +949,11 @@
         <v>0.16666666666666669</v>
       </c>
       <c r="K20" s="13">
-        <f>1/(J20/1000000)</f>
+        <f t="shared" ref="K20:K27" si="8">1/(J20/1000000)</f>
         <v>6000000</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="I21">
         <v>7.5</v>
       </c>
@@ -697,11 +962,11 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" ref="K21:K27" si="8">1/(J21/1000000)</f>
+        <f t="shared" si="8"/>
         <v>1200000</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="I22">
         <v>13.5</v>
       </c>
@@ -714,7 +979,7 @@
         <v>666666.66666666663</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="I23">
         <v>28.5</v>
       </c>
@@ -727,7 +992,7 @@
         <v>315789.4736842105</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="I24">
         <v>41.5</v>
       </c>
@@ -740,7 +1005,7 @@
         <v>216867.46987951806</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="I25">
         <v>55.5</v>
       </c>
@@ -753,7 +1018,7 @@
         <v>162162.16216216216</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="I26">
         <v>71.5</v>
       </c>
@@ -766,10 +1031,10 @@
         <v>125874.12587412589</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="I27">
         <v>239.5</v>
       </c>
@@ -783,7 +1048,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="2147483647" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483647" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -696,7 +696,7 @@
     </row>
     <row r="3">
       <c r="H3">
-        <v>225</v>
+        <v>144</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
@@ -735,11 +735,11 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f>H2/H3/H4</f>
-        <v>3200</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="7">
@@ -752,15 +752,15 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D9" si="1">C7*$D$6</f>
-        <v>0.60000000000000009</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ref="E7:E13" si="2">ROUNDDOWN(C7/$H$8,0)</f>
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F9" si="3">E7*$D$6</f>
-        <v>1920</v>
+        <v>4000</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -776,26 +776,26 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="3"/>
-        <v>960</v>
+        <v>2000</v>
       </c>
       <c r="H8">
         <f>1/H6</f>
-        <v>3.1250000000000001e-004</v>
+        <v>2.0000000000000001e-004</v>
       </c>
       <c r="I8" t="s">
         <v>9</v>
       </c>
       <c r="J8">
         <f>1000000*H8</f>
-        <v>312.5</v>
+        <v>200</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -811,15 +811,15 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>5.9999999999999998e-002</v>
+        <v>8.0000000000000002e-002</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
@@ -832,15 +832,15 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" ref="D10:D13" si="5">C10*$D$6</f>
-        <v>2.9999999999999999e-002</v>
+        <v>4.0000000000000001e-002</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ref="F10:F13" si="6">E10*$D$6</f>
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -853,15 +853,15 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="5"/>
-        <v>1.4999999999999999e-002</v>
+        <v>2.e-002</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -874,15 +874,15 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="5"/>
-        <v>1.e-002</v>
+        <v>1.3333333333333334e-002</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -895,15 +895,15 @@
       </c>
       <c r="D13" s="3">
         <f t="shared" si="5"/>
-        <v>6.0000000000000001e-003</v>
+        <v>8.0000000000000002e-003</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -924,10 +924,7 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18">
-      <c r="D18" s="1">
-        <f>128*25</f>
-        <v>3200</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="I19" t="s">
@@ -1004,6 +1001,9 @@
         <f t="shared" si="8"/>
         <v>216867.46987951806</v>
       </c>
+      <c r="L24" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25">
       <c r="I25">
@@ -1029,9 +1029,6 @@
       <c r="K26" s="13">
         <f t="shared" si="8"/>
         <v>125874.12587412589</v>
-      </c>
-      <c r="L26" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="27">

--- a/docs/hz.xlsx
+++ b/docs/hz.xlsx
@@ -13,14 +13,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">144-50 -&gt; 10000</t>
   </si>
   <si>
+    <t xml:space="preserve">CPU frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144-100 -&gt; 5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim3 prescaler</t>
+  </si>
+  <si>
     <t xml:space="preserve">225-100 -&gt; 3200</t>
   </si>
   <si>
+    <t xml:space="preserve">Tim3 counter</t>
+  </si>
+  <si>
     <t>Freq</t>
   </si>
   <si>
@@ -54,10 +66,19 @@
     <t>x</t>
   </si>
   <si>
+    <t>width</t>
+  </si>
+  <si>
     <t>Cycles</t>
   </si>
   <si>
     <t xml:space="preserve">Sample time, us</t>
+  </si>
+  <si>
+    <t>Decimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms on disp</t>
   </si>
 </sst>
 </file>
@@ -72,15 +93,21 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00000\ _₽_-;\-* #,##0.00000\ _₽_-;_-* &quot;-&quot;?????\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1" tint="0.049989318521683403"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,8 +116,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor theme="8" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
@@ -125,7 +164,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +172,17 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -142,20 +192,20 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="163" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="163" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -676,7 +726,7 @@
     <col customWidth="1" min="3" max="3" style="1" width="12.28515625"/>
     <col customWidth="1" min="4" max="4" style="1" width="11"/>
     <col customWidth="1" min="5" max="6" style="1" width="18.85546875"/>
-    <col min="7" max="7" style="1" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="1" width="14.00390625"/>
     <col bestFit="1" customWidth="1" min="8" max="8" width="18.28515625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" width="6.7109375"/>
     <col bestFit="1" customWidth="1" min="10" max="10" width="16.140625"/>
@@ -686,361 +736,453 @@
     <col bestFit="1" customWidth="1" min="15" max="15" width="17.7109375"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="H2">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>72000000</v>
       </c>
-      <c r="J2" t="s">
-        <v>0</v>
+      <c r="J2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="H3">
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
         <v>144</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="H4">
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="7">
         <f>H2/H3/H4</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <f t="shared" ref="C7:C9" si="0">1/B7</f>
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" ref="D7:D9" si="1">C7*$D$6</f>
-        <v>0.80000000000000004</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" ref="E7:E13" si="2">ROUNDDOWN(C7/$H$8,0)</f>
-        <v>1000</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" ref="F7:F9" si="3">E7*$D$6</f>
-        <v>4000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="8">
       <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="2"/>
-        <v>500</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="H8">
-        <f>1/H6</f>
-        <v>2.0000000000000001e-004</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <f>1000000*H8</f>
-        <v>200</v>
-      </c>
-      <c r="K8" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="8">
+        <f>1/B8</f>
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <f>C8*$D$7</f>
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="E8" s="9">
+        <f>ROUNDDOWN(C8/$H$9,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="10">
+        <f>E8*$D$7</f>
+        <v>4000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3">
-        <f t="shared" si="0"/>
-        <v>2.e-002</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002e-002</v>
-      </c>
-      <c r="E9" s="4">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="3"/>
-        <v>400</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <f>1/B9</f>
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <f>C9*$D$7</f>
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="E9" s="9">
+        <f>ROUNDDOWN(C9/$H$9,0)</f>
+        <v>500</v>
+      </c>
+      <c r="F9" s="10">
+        <f>E9*$D$7</f>
+        <v>2000</v>
+      </c>
+      <c r="H9" s="7">
+        <f>1/H7</f>
+        <v>2.0000000000000001e-004</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="7">
+        <f>1000000*H9</f>
+        <v>200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1">
+        <v>50</v>
+      </c>
+      <c r="C10" s="8">
+        <f>1/B10</f>
+        <v>2.e-002</v>
+      </c>
+      <c r="D10" s="8">
+        <f>C10*$D$7</f>
+        <v>8.0000000000000002e-002</v>
+      </c>
+      <c r="E10" s="9">
+        <f>ROUNDDOWN(C10/$H$9,0)</f>
         <v>100</v>
       </c>
-      <c r="C10" s="3">
-        <f t="shared" ref="C10:C13" si="4">1/B10</f>
-        <v>1.e-002</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" ref="D10:D13" si="5">C10*$D$6</f>
-        <v>4.0000000000000001e-002</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="F10" s="5">
-        <f t="shared" ref="F10:F13" si="6">E10*$D$6</f>
-        <v>200</v>
+      <c r="F10" s="10">
+        <f>E10*$D$7</f>
+        <v>400</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="8">
+        <f>1/B11</f>
+        <v>1.e-002</v>
+      </c>
+      <c r="D11" s="8">
+        <f>C11*$D$7</f>
+        <v>4.0000000000000001e-002</v>
+      </c>
+      <c r="E11" s="9">
+        <f>ROUNDDOWN(C11/$H$9,0)</f>
+        <v>50</v>
+      </c>
+      <c r="F11" s="10">
+        <f>E11*$D$7</f>
         <v>200</v>
-      </c>
-      <c r="C11" s="3">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000001e-003</v>
-      </c>
-      <c r="D11" s="3">
-        <f t="shared" si="5"/>
-        <v>2.e-002</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" si="6"/>
-        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1">
-        <v>300</v>
-      </c>
-      <c r="C12" s="3">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335e-003</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3333333333333334e-002</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <v>200</v>
+      </c>
+      <c r="C12" s="8">
+        <f>1/B12</f>
+        <v>5.0000000000000001e-003</v>
+      </c>
+      <c r="D12" s="8">
+        <f>C12*$D$7</f>
+        <v>2.e-002</v>
+      </c>
+      <c r="E12" s="9">
+        <f>ROUNDDOWN(C12/$H$9,0)</f>
+        <v>25</v>
+      </c>
+      <c r="F12" s="10">
+        <f>E12*$D$7</f>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1">
+        <v>300</v>
+      </c>
+      <c r="C13" s="8">
+        <f>1/B13</f>
+        <v>3.3333333333333335e-003</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13*$D$7</f>
+        <v>1.3333333333333334e-002</v>
+      </c>
+      <c r="E13" s="9">
+        <f>ROUNDDOWN(C13/$H$9,0)</f>
+        <v>16</v>
+      </c>
+      <c r="F13" s="10">
+        <f>E13*$D$7</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="B14" s="1">
         <v>500</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" si="4"/>
+      <c r="C14" s="8">
+        <f>1/B14</f>
         <v>2.e-003</v>
       </c>
-      <c r="D13" s="3">
-        <f t="shared" si="5"/>
+      <c r="D14" s="8">
+        <f>C14*$D$7</f>
         <v>8.0000000000000002e-003</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" si="2"/>
+      <c r="E14" s="9">
+        <f>ROUNDDOWN(C14/$H$9,0)</f>
         <v>10</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="6"/>
+      <c r="F14" s="10">
+        <f>E14*$D$7</f>
         <v>40</v>
       </c>
     </row>
     <row r="16">
-      <c r="I16" s="6"/>
-      <c r="J16" s="7">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="C17" s="1"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12">
         <v>9000000</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
+      <c r="K17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19">
-      <c r="I19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21" s="17">
+        <f>(1/$J$17)*I21*1000000</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="K21" s="18">
+        <f>1/(J21/1000000)</f>
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <f>(C22*$E$19*$J$9)/1000</f>
+        <v>25.600000000000001</v>
+      </c>
+      <c r="I22">
+        <v>7.5</v>
+      </c>
+      <c r="J22" s="17">
+        <f>(1/$J$17)*I22*1000000</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K22" s="18">
+        <f>1/(J22/1000000)</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="I20">
+      <c r="D23" s="1">
+        <f>(C23*$E$19*$J$9)/1000</f>
+        <v>51.200000000000003</v>
+      </c>
+      <c r="I23">
+        <v>13.5</v>
+      </c>
+      <c r="J23" s="17">
+        <f>(1/$J$17)*I23*1000000</f>
         <v>1.5</v>
       </c>
-      <c r="J20" s="12">
-        <f t="shared" ref="J20:J27" si="7">(1/$J$16)*I20*1000000</f>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="K20" s="13">
-        <f t="shared" ref="K20:K27" si="8">1/(J20/1000000)</f>
-        <v>6000000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="I21">
-        <v>7.5</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="8"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="I22">
-        <v>13.5</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="7"/>
-        <v>1.5</v>
-      </c>
-      <c r="K22" s="13">
-        <f t="shared" si="8"/>
+      <c r="K23" s="18">
+        <f>1/(J23/1000000)</f>
         <v>666666.66666666663</v>
       </c>
     </row>
-    <row r="23">
-      <c r="I23">
+    <row r="24">
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <f>(C24*$E$19*$J$9)/1000</f>
+        <v>102.40000000000001</v>
+      </c>
+      <c r="I24">
         <v>28.5</v>
       </c>
-      <c r="J23" s="12">
-        <f t="shared" si="7"/>
+      <c r="J24" s="17">
+        <f>(1/$J$17)*I24*1000000</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="K23" s="13">
-        <f t="shared" si="8"/>
+      <c r="K24" s="18">
+        <f>1/(J24/1000000)</f>
         <v>315789.4736842105</v>
       </c>
     </row>
-    <row r="24">
-      <c r="I24">
+    <row r="25">
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <f>(C25*$E$19*$J$9)/1000</f>
+        <v>204.80000000000001</v>
+      </c>
+      <c r="I25">
         <v>41.5</v>
       </c>
-      <c r="J24" s="12">
-        <f t="shared" si="7"/>
+      <c r="J25" s="17">
+        <f>(1/$J$17)*I25*1000000</f>
         <v>4.6111111111111116</v>
       </c>
-      <c r="K24" s="13">
-        <f t="shared" si="8"/>
+      <c r="K25" s="18">
+        <f>1/(J25/1000000)</f>
         <v>216867.46987951806</v>
       </c>
-      <c r="L24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="I25">
+      <c r="L25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1">
+        <f>(C26*$E$19*$J$9)/1000</f>
+        <v>409.60000000000002</v>
+      </c>
+      <c r="I26">
         <v>55.5</v>
       </c>
-      <c r="J25" s="12">
-        <f t="shared" si="7"/>
+      <c r="J26" s="17">
+        <f>(1/$J$17)*I26*1000000</f>
         <v>6.1666666666666661</v>
       </c>
-      <c r="K25" s="13">
-        <f t="shared" si="8"/>
+      <c r="K26" s="18">
+        <f>1/(J26/1000000)</f>
         <v>162162.16216216216</v>
       </c>
     </row>
-    <row r="26">
-      <c r="I26">
+    <row r="27">
+      <c r="C27" s="1">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1">
+        <f>(C27*$E$19*$J$9)/1000</f>
+        <v>819.20000000000005</v>
+      </c>
+      <c r="I27">
         <v>71.5</v>
       </c>
-      <c r="J26" s="12">
-        <f t="shared" si="7"/>
+      <c r="J27" s="17">
+        <f>(1/$J$17)*I27*1000000</f>
         <v>7.9444444444444438</v>
       </c>
-      <c r="K26" s="13">
-        <f t="shared" si="8"/>
+      <c r="K27" s="18">
+        <f>1/(J27/1000000)</f>
         <v>125874.12587412589</v>
       </c>
     </row>
-    <row r="27">
-      <c r="I27">
+    <row r="28" ht="14.25">
+      <c r="C28" s="1">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
+        <f>(C28*$E$19*$J$9)/1000</f>
+        <v>1638.4000000000001</v>
+      </c>
+      <c r="I28">
         <v>239.5</v>
       </c>
-      <c r="J27" s="12">
-        <f t="shared" si="7"/>
+      <c r="J28" s="17">
+        <f>(1/$J$17)*I28*1000000</f>
         <v>26.611111111111107</v>
       </c>
-      <c r="K27" s="13">
-        <f t="shared" si="8"/>
+      <c r="K28" s="18">
+        <f>1/(J28/1000000)</f>
         <v>37578.288100208774</v>
       </c>
     </row>
